--- a/Etiquette/SRO-21-011-070-ETIQUETTE.xlsx
+++ b/Etiquette/SRO-21-011-070-ETIQUETTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="482">
   <si>
     <t>CODE POINT TECHNIQUE</t>
   </si>
@@ -100,12 +100,12 @@
     <t>21267/414981</t>
   </si>
   <si>
+    <t>CDI-21-011-070-2030-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-2005-24 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-2030-12 FO</t>
-  </si>
-  <si>
     <t>21267/415013</t>
   </si>
   <si>
@@ -217,18 +217,18 @@
     <t>21542/414978</t>
   </si>
   <si>
+    <t>CDI-21-011-070-4001-96 FO</t>
+  </si>
+  <si>
+    <t>F08340030821-09/2021</t>
+  </si>
+  <si>
+    <t>CDI-21-011-070-4002-36 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-4003-12 FO</t>
   </si>
   <si>
-    <t>F08340030821-09/2021</t>
-  </si>
-  <si>
-    <t>CDI-21-011-070-4002-36 FO</t>
-  </si>
-  <si>
-    <t>CDI-21-011-070-4001-96 FO</t>
-  </si>
-  <si>
     <t>21542/0414956</t>
   </si>
   <si>
@@ -427,12 +427,12 @@
     <t>21267/20</t>
   </si>
   <si>
+    <t>CDI-21-011-070-1007-24 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-1006-24 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-1007-24 FO</t>
-  </si>
-  <si>
     <t>21267/19</t>
   </si>
   <si>
@@ -442,12 +442,12 @@
     <t>21267/24</t>
   </si>
   <si>
+    <t>CDI-21-011-070-2000-144 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-1001-48 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-2000-144 FO</t>
-  </si>
-  <si>
     <t>CDI-21-011-070-3000-288 FO</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>21267/17</t>
   </si>
   <si>
+    <t>CDI-21-011-070-1000-288 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-1004-48 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-1000-288 FO</t>
-  </si>
-  <si>
     <t>21267/61</t>
   </si>
   <si>
@@ -490,24 +490,24 @@
     <t>21267/27</t>
   </si>
   <si>
+    <t>CDI-21-011-070-2002-48 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-2004-12 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-2002-48 FO</t>
-  </si>
-  <si>
     <t>21267/28</t>
   </si>
   <si>
     <t>21267/26</t>
   </si>
   <si>
+    <t>CDI-21-011-070-2007-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-2001-48 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-2007-12 FO</t>
-  </si>
-  <si>
     <t>21267/29</t>
   </si>
   <si>
@@ -523,7 +523,7 @@
     <t>21297/83</t>
   </si>
   <si>
-    <t>F16963050821-09/2021</t>
+    <t>F30042110821-09/2021</t>
   </si>
   <si>
     <t>21297/80</t>
@@ -613,6 +613,9 @@
     <t>CDI-21-011-070-3011-36 FO</t>
   </si>
   <si>
+    <t>F45933170821-09/2021</t>
+  </si>
+  <si>
     <t>21297/77</t>
   </si>
   <si>
@@ -631,12 +634,12 @@
     <t>21297/103</t>
   </si>
   <si>
+    <t>CDI-21-011-070-3017-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-3016-12 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-3017-12 FO</t>
-  </si>
-  <si>
     <t>21297/104</t>
   </si>
   <si>
@@ -883,27 +886,27 @@
     <t>21542/24</t>
   </si>
   <si>
+    <t>CDI-21-011-070-4015-36 FO</t>
+  </si>
+  <si>
+    <t>F08347030821-09/2021</t>
+  </si>
+  <si>
+    <t>CDI-21-011-070-4011-12 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-4007-24 FO</t>
   </si>
   <si>
-    <t>F08347030821-09/2021</t>
-  </si>
-  <si>
-    <t>CDI-21-011-070-4011-12 FO</t>
-  </si>
-  <si>
-    <t>CDI-21-011-070-4015-36 FO</t>
-  </si>
-  <si>
     <t>21542/46</t>
   </si>
   <si>
+    <t>CDI-21-011-070-4006-36 FO</t>
+  </si>
+  <si>
     <t>CDI-21-011-070-4009-12 FO</t>
   </si>
   <si>
-    <t>CDI-21-011-070-4006-36 FO</t>
-  </si>
-  <si>
     <t>21542/07</t>
   </si>
   <si>
@@ -1093,6 +1096,9 @@
     <t>PBO-21-011-070-3020</t>
   </si>
   <si>
+    <t xml:space="preserve">  -09/2021</t>
+  </si>
+  <si>
     <t>PBO-21-011-070-3007</t>
   </si>
   <si>
@@ -1166,9 +1172,6 @@
   </si>
   <si>
     <t>PBO-21-011-070-3004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -09/2021</t>
   </si>
   <si>
     <t>PBO-21-011-070-3016</t>
@@ -1804,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G590"/>
+  <dimension ref="A1:G592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1994,7 +1997,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -2015,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -2162,7 +2165,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
@@ -2183,7 +2186,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -2372,7 +2375,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>42</v>
@@ -2393,7 +2396,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>42</v>
@@ -2603,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>42</v>
@@ -2624,7 +2627,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>42</v>
@@ -3716,7 +3719,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>39</v>
@@ -3737,7 +3740,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>39</v>
@@ -3758,7 +3761,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>39</v>
@@ -3800,7 +3803,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>39</v>
@@ -3821,7 +3824,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>39</v>
@@ -3884,7 +3887,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>39</v>
@@ -3905,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>39</v>
@@ -3989,7 +3992,7 @@
         <v>9</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>39</v>
@@ -4010,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>39</v>
@@ -4136,7 +4139,7 @@
         <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>39</v>
@@ -4157,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>39</v>
@@ -4283,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>20</v>
@@ -4304,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>20</v>
@@ -4367,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>20</v>
@@ -4388,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>20</v>
@@ -4409,7 +4412,7 @@
         <v>9</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>20</v>
@@ -4472,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>20</v>
@@ -4493,7 +4496,7 @@
         <v>9</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>20</v>
@@ -4514,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>20</v>
@@ -4535,7 +4538,7 @@
         <v>9</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>20</v>
@@ -4556,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>20</v>
@@ -4577,7 +4580,7 @@
         <v>9</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>39</v>
@@ -4598,7 +4601,7 @@
         <v>9</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>39</v>
@@ -4661,7 +4664,7 @@
         <v>9</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>39</v>
@@ -4703,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>39</v>
@@ -4724,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>39</v>
@@ -4745,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>39</v>
@@ -4766,7 +4769,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>20</v>
@@ -4787,7 +4790,7 @@
         <v>9</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>20</v>
@@ -4808,7 +4811,7 @@
         <v>9</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>20</v>
@@ -4829,7 +4832,7 @@
         <v>9</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>20</v>
@@ -4850,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>20</v>
@@ -4871,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>39</v>
@@ -4892,7 +4895,7 @@
         <v>9</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>39</v>
@@ -4913,7 +4916,7 @@
         <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>26</v>
@@ -4934,7 +4937,7 @@
         <v>9</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>26</v>
@@ -4976,7 +4979,7 @@
         <v>9</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>26</v>
@@ -5018,7 +5021,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>26</v>
@@ -5039,7 +5042,7 @@
         <v>9</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>26</v>
@@ -5102,7 +5105,7 @@
         <v>9</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>20</v>
@@ -5123,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>20</v>
@@ -5144,7 +5147,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>20</v>
@@ -5165,7 +5168,7 @@
         <v>9</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>20</v>
@@ -5186,7 +5189,7 @@
         <v>9</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>20</v>
@@ -5207,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>20</v>
@@ -5228,7 +5231,7 @@
         <v>9</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>26</v>
@@ -5249,7 +5252,7 @@
         <v>9</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>26</v>
@@ -5270,7 +5273,7 @@
         <v>9</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>26</v>
@@ -5291,7 +5294,7 @@
         <v>9</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>26</v>
@@ -5396,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>26</v>
@@ -5417,7 +5420,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>26</v>
@@ -5438,7 +5441,7 @@
         <v>9</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>26</v>
@@ -5522,7 +5525,7 @@
         <v>9</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>169</v>
@@ -5543,7 +5546,7 @@
         <v>9</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>169</v>
@@ -5585,7 +5588,7 @@
         <v>9</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>169</v>
@@ -5606,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>169</v>
@@ -5648,7 +5651,7 @@
         <v>9</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>169</v>
@@ -5669,7 +5672,7 @@
         <v>9</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>169</v>
@@ -5711,7 +5714,7 @@
         <v>9</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>26</v>
@@ -5732,7 +5735,7 @@
         <v>9</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>20</v>
@@ -5900,7 +5903,7 @@
         <v>9</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>20</v>
@@ -5921,7 +5924,7 @@
         <v>9</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>20</v>
@@ -5942,7 +5945,7 @@
         <v>9</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>20</v>
@@ -5963,7 +5966,7 @@
         <v>9</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>20</v>
@@ -6008,7 +6011,7 @@
         <v>189</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G200" s="1"/>
     </row>
@@ -6029,7 +6032,7 @@
         <v>145</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G201" s="1"/>
     </row>
@@ -6047,7 +6050,7 @@
         <v>9</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>169</v>
@@ -6068,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>169</v>
@@ -6152,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>169</v>
@@ -6173,7 +6176,7 @@
         <v>9</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>169</v>
@@ -6197,13 +6200,13 @@
         <v>198</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B210" s="1">
         <v>2</v>
@@ -6215,7 +6218,7 @@
         <v>9</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>169</v>
@@ -6224,7 +6227,7 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B211" s="1">
         <v>2</v>
@@ -6236,7 +6239,7 @@
         <v>9</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>169</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B212" s="1">
         <v>2</v>
@@ -6266,7 +6269,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B213" s="1">
         <v>2</v>
@@ -6278,16 +6281,16 @@
         <v>9</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B214" s="1">
         <v>2</v>
@@ -6299,16 +6302,16 @@
         <v>9</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B215" s="1">
         <v>2</v>
@@ -6323,13 +6326,13 @@
         <v>145</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B216" s="1">
         <v>2</v>
@@ -6341,37 +6344,37 @@
         <v>9</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B217" s="1">
-        <v>2</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F217" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B218" s="1">
         <v>2</v>
@@ -6386,13 +6389,13 @@
         <v>145</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B219" s="1">
         <v>2</v>
@@ -6404,16 +6407,16 @@
         <v>9</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B220" s="1">
         <v>2</v>
@@ -6425,37 +6428,37 @@
         <v>9</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B221" s="1">
+        <v>2</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B221" s="1">
-        <v>2</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="F221" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B222" s="1">
         <v>2</v>
@@ -6476,7 +6479,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="1">
         <v>2</v>
@@ -6488,7 +6491,7 @@
         <v>9</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>169</v>
@@ -6497,7 +6500,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="1">
         <v>2</v>
@@ -6509,7 +6512,7 @@
         <v>9</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>169</v>
@@ -6518,7 +6521,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="1">
         <v>2</v>
@@ -6530,7 +6533,7 @@
         <v>9</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>169</v>
@@ -6539,7 +6542,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="1">
         <v>2</v>
@@ -6551,7 +6554,7 @@
         <v>9</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>169</v>
@@ -6560,7 +6563,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="1">
         <v>2</v>
@@ -6572,7 +6575,7 @@
         <v>9</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>169</v>
@@ -6581,7 +6584,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="1">
         <v>2</v>
@@ -6593,7 +6596,7 @@
         <v>9</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>169</v>
@@ -6602,7 +6605,7 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="1">
         <v>2</v>
@@ -6623,7 +6626,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B230" s="1">
         <v>2</v>
@@ -6635,16 +6638,16 @@
         <v>9</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231" s="1">
         <v>2</v>
@@ -6659,13 +6662,13 @@
         <v>145</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B232" s="1">
         <v>2</v>
@@ -6686,7 +6689,7 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B233" s="1">
         <v>2</v>
@@ -6698,7 +6701,7 @@
         <v>9</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>169</v>
@@ -6707,7 +6710,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B234" s="1">
         <v>2</v>
@@ -6719,7 +6722,7 @@
         <v>9</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>169</v>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B235" s="1">
         <v>2</v>
@@ -6740,7 +6743,7 @@
         <v>9</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>169</v>
@@ -6749,7 +6752,7 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B236" s="1">
         <v>2</v>
@@ -6770,7 +6773,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B237" s="1">
         <v>2</v>
@@ -6782,16 +6785,16 @@
         <v>9</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B238" s="1">
         <v>2</v>
@@ -6806,13 +6809,13 @@
         <v>145</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B239" s="1">
         <v>2</v>
@@ -6824,7 +6827,7 @@
         <v>9</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>26</v>
@@ -6833,7 +6836,7 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B240" s="1">
         <v>2</v>
@@ -6845,7 +6848,7 @@
         <v>9</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>26</v>
@@ -6854,7 +6857,7 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B241" s="1">
         <v>1</v>
@@ -6875,7 +6878,7 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B242" s="1">
         <v>1</v>
@@ -6887,7 +6890,7 @@
         <v>9</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>76</v>
@@ -6896,19 +6899,19 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B243" s="1">
-        <v>1</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>76</v>
@@ -6950,7 +6953,7 @@
         <v>9</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>76</v>
@@ -6971,7 +6974,7 @@
         <v>9</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>76</v>
@@ -6980,19 +6983,19 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B247" s="1">
+        <v>1</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B247" s="1">
-        <v>1</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>76</v>
@@ -7013,7 +7016,7 @@
         <v>9</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>76</v>
@@ -7034,7 +7037,7 @@
         <v>9</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>76</v>
@@ -7055,7 +7058,7 @@
         <v>9</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>76</v>
@@ -7064,7 +7067,7 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B251" s="1">
         <v>1</v>
@@ -7076,7 +7079,7 @@
         <v>9</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>76</v>
@@ -7085,7 +7088,7 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B252" s="1">
         <v>1</v>
@@ -7097,7 +7100,7 @@
         <v>9</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>76</v>
@@ -7139,7 +7142,7 @@
         <v>9</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>76</v>
@@ -7202,7 +7205,7 @@
         <v>9</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>76</v>
@@ -7232,7 +7235,7 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B259" s="1">
         <v>1</v>
@@ -7244,7 +7247,7 @@
         <v>9</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>76</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B260" s="1">
         <v>1</v>
@@ -7265,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>76</v>
@@ -7274,7 +7277,7 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B261" s="1">
         <v>1</v>
@@ -7286,7 +7289,7 @@
         <v>9</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>76</v>
@@ -7295,19 +7298,19 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B262" s="1">
-        <v>1</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>76</v>
@@ -7316,7 +7319,7 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B263" s="1">
         <v>1</v>
@@ -7328,7 +7331,7 @@
         <v>9</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>76</v>
@@ -7337,7 +7340,7 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B264" s="1">
         <v>1</v>
@@ -7349,7 +7352,7 @@
         <v>9</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>76</v>
@@ -7412,7 +7415,7 @@
         <v>9</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>76</v>
@@ -7421,19 +7424,19 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B268" s="1">
-        <v>1</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>76</v>
@@ -7442,7 +7445,7 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B269" s="1">
         <v>1</v>
@@ -7454,7 +7457,7 @@
         <v>9</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>76</v>
@@ -7463,7 +7466,7 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B270" s="1">
         <v>1</v>
@@ -7484,19 +7487,19 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B271" s="1">
-        <v>1</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>76</v>
@@ -7505,7 +7508,7 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B272" s="1">
         <v>1</v>
@@ -7517,7 +7520,7 @@
         <v>9</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>76</v>
@@ -7526,7 +7529,7 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B273" s="1">
         <v>1</v>
@@ -7547,7 +7550,7 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B274" s="1">
         <v>1</v>
@@ -7559,7 +7562,7 @@
         <v>9</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>76</v>
@@ -7568,7 +7571,7 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B275" s="1">
         <v>1</v>
@@ -7589,7 +7592,7 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B276" s="1">
         <v>1</v>
@@ -7601,7 +7604,7 @@
         <v>9</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>76</v>
@@ -7610,7 +7613,7 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B277" s="1">
         <v>1</v>
@@ -7643,7 +7646,7 @@
         <v>9</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>76</v>
@@ -7652,7 +7655,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B279" s="1">
         <v>1</v>
@@ -7664,7 +7667,7 @@
         <v>9</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>76</v>
@@ -7673,19 +7676,19 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B280" s="1">
+        <v>1</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B280" s="1">
-        <v>1</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>76</v>
@@ -7736,7 +7739,7 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B283" s="1">
         <v>2</v>
@@ -7757,7 +7760,7 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B284" s="1">
         <v>2</v>
@@ -7769,7 +7772,7 @@
         <v>9</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>130</v>
@@ -7778,19 +7781,19 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B285" s="1">
+        <v>2</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B285" s="1">
-        <v>2</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>130</v>
@@ -7799,7 +7802,7 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B286" s="1">
         <v>2</v>
@@ -7811,7 +7814,7 @@
         <v>9</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>130</v>
@@ -7820,19 +7823,19 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B287" s="1">
+        <v>2</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B287" s="1">
-        <v>2</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>130</v>
@@ -7841,7 +7844,7 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B288" s="1">
         <v>2</v>
@@ -7853,7 +7856,7 @@
         <v>9</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>130</v>
@@ -7862,7 +7865,7 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B289" s="1">
         <v>2</v>
@@ -7874,7 +7877,7 @@
         <v>9</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>130</v>
@@ -7883,7 +7886,7 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B290" s="1">
         <v>2</v>
@@ -7895,7 +7898,7 @@
         <v>9</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>130</v>
@@ -7904,7 +7907,7 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B291" s="1">
         <v>2</v>
@@ -7916,7 +7919,7 @@
         <v>9</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>130</v>
@@ -7925,7 +7928,7 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B292" s="1">
         <v>2</v>
@@ -7937,7 +7940,7 @@
         <v>9</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>130</v>
@@ -7946,7 +7949,7 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B293" s="1">
         <v>2</v>
@@ -7958,7 +7961,7 @@
         <v>9</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>130</v>
@@ -7979,7 +7982,7 @@
         <v>9</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>76</v>
@@ -8000,7 +8003,7 @@
         <v>9</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>76</v>
@@ -8021,7 +8024,7 @@
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>76</v>
@@ -8030,7 +8033,7 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B297" s="1">
         <v>1</v>
@@ -8042,7 +8045,7 @@
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>130</v>
@@ -8063,7 +8066,7 @@
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>76</v>
@@ -8084,7 +8087,7 @@
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>76</v>
@@ -8105,7 +8108,7 @@
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>76</v>
@@ -8126,7 +8129,7 @@
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>76</v>
@@ -8135,7 +8138,7 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B302" s="1">
         <v>2</v>
@@ -8156,7 +8159,7 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B303" s="1">
         <v>2</v>
@@ -8168,7 +8171,7 @@
         <v>9</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>130</v>
@@ -8177,19 +8180,19 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B304" s="1">
+        <v>2</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B304" s="1">
-        <v>2</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>130</v>
@@ -8198,7 +8201,7 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B305" s="1">
         <v>2</v>
@@ -8210,7 +8213,7 @@
         <v>9</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>130</v>
@@ -8219,7 +8222,7 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B306" s="1">
         <v>2</v>
@@ -8231,7 +8234,7 @@
         <v>9</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>130</v>
@@ -8252,7 +8255,7 @@
         <v>9</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>76</v>
@@ -8273,7 +8276,7 @@
         <v>9</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>76</v>
@@ -8336,7 +8339,7 @@
         <v>9</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>76</v>
@@ -8345,7 +8348,7 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B312" s="1">
         <v>1</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B313" s="1">
         <v>1</v>
@@ -8387,7 +8390,7 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B314" s="1">
         <v>1</v>
@@ -8429,7 +8432,7 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B316" s="1">
         <v>2</v>
@@ -8441,7 +8444,7 @@
         <v>9</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>130</v>
@@ -8450,7 +8453,7 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B317" s="1">
         <v>2</v>
@@ -8471,7 +8474,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B318" s="1">
         <v>2</v>
@@ -8492,7 +8495,7 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B319" s="1">
         <v>1</v>
@@ -8513,7 +8516,7 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B320" s="1">
         <v>2</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B321" s="1">
         <v>2</v>
@@ -8555,7 +8558,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B322" s="1">
         <v>1</v>
@@ -8567,7 +8570,7 @@
         <v>9</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>76</v>
@@ -8576,7 +8579,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B323" s="1">
         <v>2</v>
@@ -8588,7 +8591,7 @@
         <v>9</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>130</v>
@@ -8597,7 +8600,7 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B324" s="1">
         <v>2</v>
@@ -8630,7 +8633,7 @@
         <v>9</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>76</v>
@@ -8672,7 +8675,7 @@
         <v>9</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>76</v>
@@ -8693,7 +8696,7 @@
         <v>9</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>76</v>
@@ -8714,7 +8717,7 @@
         <v>9</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>76</v>
@@ -8735,7 +8738,7 @@
         <v>9</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>76</v>
@@ -8756,7 +8759,7 @@
         <v>9</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>76</v>
@@ -8777,7 +8780,7 @@
         <v>9</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>76</v>
@@ -8798,7 +8801,7 @@
         <v>9</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>76</v>
@@ -8807,7 +8810,7 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B334" s="1">
         <v>1</v>
@@ -8819,7 +8822,7 @@
         <v>9</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>76</v>
@@ -8828,19 +8831,19 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B335" s="1">
-        <v>1</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>76</v>
@@ -8861,7 +8864,7 @@
         <v>9</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>76</v>
@@ -8882,7 +8885,7 @@
         <v>9</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>76</v>
@@ -8903,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>76</v>
@@ -8924,7 +8927,7 @@
         <v>9</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>76</v>
@@ -8933,19 +8936,19 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B340" s="1">
-        <v>1</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>76</v>
@@ -8954,7 +8957,7 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B341" s="1">
         <v>1</v>
@@ -8966,7 +8969,7 @@
         <v>9</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>76</v>
@@ -8987,7 +8990,7 @@
         <v>9</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>76</v>
@@ -9008,7 +9011,7 @@
         <v>9</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>76</v>
@@ -9071,7 +9074,7 @@
         <v>9</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>76</v>
@@ -9092,7 +9095,7 @@
         <v>9</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>76</v>
@@ -9101,19 +9104,19 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B348" s="1">
+        <v>1</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B348" s="1">
-        <v>1</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>76</v>
@@ -9122,7 +9125,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B349" s="1">
         <v>1</v>
@@ -9134,7 +9137,7 @@
         <v>9</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>76</v>
@@ -9155,7 +9158,7 @@
         <v>9</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>76</v>
@@ -9164,19 +9167,19 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B351" s="1">
+        <v>1</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B351" s="1">
-        <v>1</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D351" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>76</v>
@@ -9185,7 +9188,7 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B352" s="1">
         <v>1</v>
@@ -9197,7 +9200,7 @@
         <v>9</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>76</v>
@@ -9239,7 +9242,7 @@
         <v>9</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>76</v>
@@ -9260,7 +9263,7 @@
         <v>9</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>76</v>
@@ -9281,7 +9284,7 @@
         <v>9</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>76</v>
@@ -9290,7 +9293,7 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B357" s="1">
         <v>2</v>
@@ -9302,7 +9305,7 @@
         <v>9</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>68</v>
@@ -9311,7 +9314,7 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B358" s="1">
         <v>2</v>
@@ -9323,16 +9326,16 @@
         <v>9</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B359" s="1">
         <v>2</v>
@@ -9344,16 +9347,16 @@
         <v>9</v>
       </c>
       <c r="E359" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F359" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B360" s="1">
         <v>2</v>
@@ -9365,16 +9368,16 @@
         <v>9</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B361" s="1">
         <v>2</v>
@@ -9386,7 +9389,7 @@
         <v>9</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>68</v>
@@ -9395,7 +9398,7 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B362" s="1">
         <v>2</v>
@@ -9407,7 +9410,7 @@
         <v>9</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>68</v>
@@ -9416,7 +9419,7 @@
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B363" s="1">
         <v>2</v>
@@ -9428,7 +9431,7 @@
         <v>9</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>68</v>
@@ -9437,7 +9440,7 @@
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B364" s="1">
         <v>2</v>
@@ -9449,16 +9452,16 @@
         <v>9</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B365" s="1">
         <v>2</v>
@@ -9470,7 +9473,7 @@
         <v>9</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>68</v>
@@ -9479,7 +9482,7 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B366" s="1">
         <v>2</v>
@@ -9491,16 +9494,16 @@
         <v>9</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B367" s="1">
         <v>2</v>
@@ -9512,16 +9515,16 @@
         <v>9</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B368" s="1">
         <v>2</v>
@@ -9533,16 +9536,16 @@
         <v>9</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B369" s="1">
         <v>2</v>
@@ -9554,16 +9557,16 @@
         <v>9</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B370" s="1">
         <v>2</v>
@@ -9575,16 +9578,16 @@
         <v>9</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B371" s="1">
         <v>2</v>
@@ -9596,7 +9599,7 @@
         <v>9</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>73</v>
@@ -9605,7 +9608,7 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B372" s="1">
         <v>2</v>
@@ -9617,7 +9620,7 @@
         <v>9</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>73</v>
@@ -9626,19 +9629,19 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B373" s="1">
+        <v>2</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E373" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B373" s="1">
-        <v>2</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>73</v>
@@ -9647,7 +9650,7 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B374" s="1">
         <v>2</v>
@@ -9659,7 +9662,7 @@
         <v>9</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>73</v>
@@ -9668,7 +9671,7 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B375" s="1">
         <v>2</v>
@@ -9680,7 +9683,7 @@
         <v>9</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>73</v>
@@ -9689,7 +9692,7 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B376" s="1">
         <v>2</v>
@@ -9701,7 +9704,7 @@
         <v>9</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>73</v>
@@ -9710,7 +9713,7 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B377" s="1">
         <v>2</v>
@@ -9731,7 +9734,7 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B378" s="1">
         <v>2</v>
@@ -9743,7 +9746,7 @@
         <v>9</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>73</v>
@@ -9752,19 +9755,19 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E379" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B379" s="1">
-        <v>2</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>73</v>
@@ -9773,7 +9776,7 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B380" s="1">
         <v>2</v>
@@ -9785,7 +9788,7 @@
         <v>9</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>73</v>
@@ -9794,7 +9797,7 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B381" s="1">
         <v>2</v>
@@ -9806,7 +9809,7 @@
         <v>9</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>73</v>
@@ -9815,7 +9818,7 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B382" s="1">
         <v>2</v>
@@ -9827,16 +9830,16 @@
         <v>9</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B383" s="1">
         <v>2</v>
@@ -9848,16 +9851,16 @@
         <v>9</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B384" s="1">
         <v>2</v>
@@ -9869,16 +9872,16 @@
         <v>9</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G384" s="1"/>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B385" s="1">
         <v>2</v>
@@ -9890,16 +9893,16 @@
         <v>9</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B386" s="1">
         <v>2</v>
@@ -9911,16 +9914,16 @@
         <v>9</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B387" s="1">
         <v>2</v>
@@ -9932,16 +9935,16 @@
         <v>9</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B388" s="1">
         <v>2</v>
@@ -9953,37 +9956,37 @@
         <v>9</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B389" s="1">
+        <v>2</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E389" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B389" s="1">
-        <v>2</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="F389" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B390" s="1">
         <v>2</v>
@@ -9995,16 +9998,16 @@
         <v>9</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B391" s="1">
         <v>2</v>
@@ -10016,16 +10019,16 @@
         <v>9</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B392" s="1">
         <v>2</v>
@@ -10037,16 +10040,16 @@
         <v>9</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B393" s="1">
         <v>2</v>
@@ -10058,7 +10061,7 @@
         <v>9</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>68</v>
@@ -10067,7 +10070,7 @@
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B394" s="1">
         <v>2</v>
@@ -10079,16 +10082,16 @@
         <v>9</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B395" s="1">
         <v>2</v>
@@ -10100,7 +10103,7 @@
         <v>9</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>42</v>
@@ -10109,7 +10112,7 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B396" s="1">
         <v>2</v>
@@ -10121,7 +10124,7 @@
         <v>9</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>42</v>
@@ -10130,7 +10133,7 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B397" s="1">
         <v>2</v>
@@ -10142,7 +10145,7 @@
         <v>9</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>42</v>
@@ -10151,7 +10154,7 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B398" s="1">
         <v>2</v>
@@ -10172,7 +10175,7 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B399" s="1">
         <v>2</v>
@@ -10184,7 +10187,7 @@
         <v>9</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>73</v>
@@ -10193,7 +10196,7 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B400" s="1">
         <v>2</v>
@@ -10205,7 +10208,7 @@
         <v>9</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>68</v>
@@ -10214,7 +10217,7 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B401" s="1">
         <v>2</v>
@@ -10226,16 +10229,16 @@
         <v>9</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B402" s="1">
         <v>2</v>
@@ -10247,16 +10250,16 @@
         <v>9</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B403" s="1">
         <v>2</v>
@@ -10268,7 +10271,7 @@
         <v>9</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>68</v>
@@ -10277,7 +10280,7 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B404" s="1">
         <v>2</v>
@@ -10289,7 +10292,7 @@
         <v>9</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>68</v>
@@ -10298,7 +10301,7 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B405" s="1">
         <v>2</v>
@@ -10319,7 +10322,7 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B406" s="1">
         <v>2</v>
@@ -10331,7 +10334,7 @@
         <v>9</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>73</v>
@@ -10340,7 +10343,7 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B407" s="1">
         <v>2</v>
@@ -10361,7 +10364,7 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B408" s="1">
         <v>2</v>
@@ -10382,7 +10385,7 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B409" s="1">
         <v>2</v>
@@ -10403,7 +10406,7 @@
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B410" s="1">
         <v>2</v>
@@ -10424,7 +10427,7 @@
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B411" s="1">
         <v>2</v>
@@ -10436,7 +10439,7 @@
         <v>9</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>68</v>
@@ -10445,7 +10448,7 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B412" s="1">
         <v>2</v>
@@ -10457,7 +10460,7 @@
         <v>9</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>68</v>
@@ -10466,7 +10469,7 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B413" s="1">
         <v>2</v>
@@ -10478,7 +10481,7 @@
         <v>9</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>68</v>
@@ -10487,7 +10490,7 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B414" s="1">
         <v>2</v>
@@ -10499,7 +10502,7 @@
         <v>9</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>68</v>
@@ -10508,7 +10511,7 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B415" s="1">
         <v>2</v>
@@ -10520,7 +10523,7 @@
         <v>9</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>68</v>
@@ -10529,7 +10532,7 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B416" s="1">
         <v>2</v>
@@ -10541,7 +10544,7 @@
         <v>9</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>68</v>
@@ -10550,7 +10553,7 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B417" s="1">
         <v>2</v>
@@ -10562,7 +10565,7 @@
         <v>9</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>73</v>
@@ -10571,7 +10574,7 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B418" s="1">
         <v>2</v>
@@ -10583,16 +10586,16 @@
         <v>9</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G418" s="1"/>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B419" s="1">
         <v>2</v>
@@ -10604,16 +10607,16 @@
         <v>9</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B420" s="1">
         <v>2</v>
@@ -10625,16 +10628,16 @@
         <v>9</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B421" s="1">
         <v>2</v>
@@ -10649,7 +10652,7 @@
         <v>304</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G421" s="1"/>
     </row>
@@ -10688,7 +10691,7 @@
         <v>9</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>42</v>
@@ -10709,7 +10712,7 @@
         <v>9</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>42</v>
@@ -10856,7 +10859,7 @@
         <v>9</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>42</v>
@@ -10877,7 +10880,7 @@
         <v>9</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>42</v>
@@ -10940,7 +10943,7 @@
         <v>9</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>76</v>
@@ -10961,7 +10964,7 @@
         <v>9</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>76</v>
@@ -10982,7 +10985,7 @@
         <v>9</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>76</v>
@@ -11054,7 +11057,7 @@
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B441" s="1">
         <v>2</v>
@@ -11066,16 +11069,16 @@
         <v>9</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G441" s="1"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B442" s="1">
         <v>2</v>
@@ -11087,16 +11090,16 @@
         <v>9</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G442" s="1"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B443" s="1">
         <v>2</v>
@@ -11108,16 +11111,16 @@
         <v>9</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G443" s="1"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B444" s="1">
         <v>2</v>
@@ -11129,16 +11132,16 @@
         <v>9</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G444" s="1"/>
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B445" s="1">
         <v>2</v>
@@ -11150,16 +11153,16 @@
         <v>9</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B446" s="1">
         <v>2</v>
@@ -11171,7 +11174,7 @@
         <v>9</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>130</v>
@@ -11180,7 +11183,7 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B447" s="1">
         <v>2</v>
@@ -11192,7 +11195,7 @@
         <v>9</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>130</v>
@@ -11201,7 +11204,7 @@
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B448" s="1">
         <v>2</v>
@@ -11213,7 +11216,7 @@
         <v>9</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>130</v>
@@ -11222,7 +11225,7 @@
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B449" s="1">
         <v>2</v>
@@ -11234,7 +11237,7 @@
         <v>9</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>130</v>
@@ -11243,7 +11246,7 @@
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B450" s="1">
         <v>2</v>
@@ -11255,7 +11258,7 @@
         <v>9</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>130</v>
@@ -11264,7 +11267,7 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B451" s="1">
         <v>2</v>
@@ -11276,7 +11279,7 @@
         <v>9</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>130</v>
@@ -11285,7 +11288,7 @@
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B452" s="1">
         <v>2</v>
@@ -11297,7 +11300,7 @@
         <v>9</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>130</v>
@@ -11306,7 +11309,7 @@
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B453" s="1">
         <v>2</v>
@@ -11318,7 +11321,7 @@
         <v>9</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>130</v>
@@ -11327,7 +11330,7 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B454" s="1">
         <v>2</v>
@@ -11339,7 +11342,7 @@
         <v>9</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>130</v>
@@ -11348,19 +11351,19 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B455" s="1">
+        <v>2</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E455" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B455" s="1">
-        <v>2</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>130</v>
@@ -11369,7 +11372,7 @@
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B456" s="1">
         <v>2</v>
@@ -11381,7 +11384,7 @@
         <v>9</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>130</v>
@@ -11390,19 +11393,19 @@
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B457" s="1">
+        <v>2</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E457" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B457" s="1">
-        <v>2</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D457" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>130</v>
@@ -11423,7 +11426,7 @@
         <v>9</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F458" s="1" t="s">
         <v>130</v>
@@ -11432,10 +11435,10 @@
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="1" t="s">
-        <v>71</v>
+        <v>349</v>
       </c>
       <c r="B459" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>8</v>
@@ -11444,10 +11447,10 @@
         <v>9</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="F459" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="G459" s="1"/>
     </row>
@@ -11465,7 +11468,7 @@
         <v>9</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F460" s="1" t="s">
         <v>130</v>
@@ -11474,10 +11477,10 @@
     </row>
     <row r="461" spans="1:7">
       <c r="A461" s="1" t="s">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="B461" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>8</v>
@@ -11486,16 +11489,16 @@
         <v>9</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="F461" s="1" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G461" s="1"/>
     </row>
     <row r="462" spans="1:7">
       <c r="A462" s="1" t="s">
-        <v>112</v>
+        <v>351</v>
       </c>
       <c r="B462" s="1">
         <v>2</v>
@@ -11507,16 +11510,16 @@
         <v>9</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="F462" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="G462" s="1"/>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="1" t="s">
-        <v>112</v>
+        <v>351</v>
       </c>
       <c r="B463" s="1">
         <v>2</v>
@@ -11528,10 +11531,10 @@
         <v>9</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F463" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="G463" s="1"/>
     </row>
@@ -11549,7 +11552,7 @@
         <v>9</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F464" s="1" t="s">
         <v>76</v>
@@ -11570,7 +11573,7 @@
         <v>9</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F465" s="1" t="s">
         <v>76</v>
@@ -11579,10 +11582,10 @@
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="B466" s="1">
+        <v>2</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>8</v>
@@ -11591,19 +11594,19 @@
         <v>9</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>351</v>
+        <v>142</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="B467" s="1">
+        <v>2</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>8</v>
@@ -11612,7 +11615,7 @@
         <v>9</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>352</v>
+        <v>144</v>
       </c>
       <c r="F467" s="1" t="s">
         <v>76</v>
@@ -11621,7 +11624,7 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>75</v>
@@ -11633,16 +11636,16 @@
         <v>9</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F468" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="G468" s="1"/>
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>75</v>
@@ -11654,7 +11657,7 @@
         <v>9</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F469" s="1" t="s">
         <v>76</v>
@@ -11663,7 +11666,7 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>75</v>
@@ -11675,16 +11678,16 @@
         <v>9</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F470" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>75</v>
@@ -11696,7 +11699,7 @@
         <v>9</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>76</v>
@@ -11705,7 +11708,7 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>75</v>
@@ -11717,7 +11720,7 @@
         <v>9</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F472" s="1" t="s">
         <v>39</v>
@@ -11726,7 +11729,7 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473" s="1" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>75</v>
@@ -11738,16 +11741,16 @@
         <v>9</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F473" s="1" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7">
       <c r="A474" s="1" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>75</v>
@@ -11759,16 +11762,16 @@
         <v>9</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F474" s="1" t="s">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>75</v>
@@ -11780,16 +11783,16 @@
         <v>9</v>
       </c>
       <c r="E475" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F475" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7">
       <c r="A476" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>75</v>
@@ -11810,7 +11813,7 @@
     </row>
     <row r="477" spans="1:7">
       <c r="A477" s="1" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>75</v>
@@ -11825,13 +11828,13 @@
         <v>362</v>
       </c>
       <c r="F477" s="1" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7">
       <c r="A478" s="1" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>75</v>
@@ -11846,13 +11849,13 @@
         <v>363</v>
       </c>
       <c r="F478" s="1" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7">
       <c r="A479" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>75</v>
@@ -11867,13 +11870,13 @@
         <v>364</v>
       </c>
       <c r="F479" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7">
       <c r="A480" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>75</v>
@@ -11888,13 +11891,13 @@
         <v>365</v>
       </c>
       <c r="F480" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7">
       <c r="A481" s="1" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>75</v>
@@ -11915,7 +11918,7 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="1" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>75</v>
@@ -11930,13 +11933,13 @@
         <v>367</v>
       </c>
       <c r="F482" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7">
       <c r="A483" s="1" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>75</v>
@@ -11951,13 +11954,13 @@
         <v>368</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="1" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>75</v>
@@ -11972,13 +11975,13 @@
         <v>369</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="1" t="s">
-        <v>167</v>
+        <v>265</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>75</v>
@@ -11993,13 +11996,13 @@
         <v>370</v>
       </c>
       <c r="F485" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G485" s="1"/>
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>75</v>
@@ -12020,7 +12023,7 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="1" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>75</v>
@@ -12035,13 +12038,13 @@
         <v>372</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7">
       <c r="A488" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>75</v>
@@ -12062,7 +12065,7 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>75</v>
@@ -12083,7 +12086,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>75</v>
@@ -12104,7 +12107,7 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491" s="1" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>75</v>
@@ -12125,7 +12128,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="A492" s="1" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>75</v>
@@ -12146,7 +12149,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="A493" s="1" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>75</v>
@@ -12161,13 +12164,13 @@
         <v>378</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7">
       <c r="A494" s="1" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>75</v>
@@ -12182,13 +12185,13 @@
         <v>379</v>
       </c>
       <c r="F494" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7">
       <c r="A495" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>75</v>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>75</v>
@@ -12224,13 +12227,13 @@
         <v>381</v>
       </c>
       <c r="F496" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G496" s="1"/>
     </row>
     <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>75</v>
@@ -12245,13 +12248,13 @@
         <v>382</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="G497" s="1"/>
     </row>
     <row r="498" spans="1:7">
       <c r="A498" s="1" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>75</v>
@@ -12266,13 +12269,13 @@
         <v>383</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="G498" s="1"/>
     </row>
     <row r="499" spans="1:7">
       <c r="A499" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>75</v>
@@ -12284,7 +12287,7 @@
         <v>9</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>169</v>
@@ -12293,7 +12296,7 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500" s="1" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>75</v>
@@ -12305,16 +12308,16 @@
         <v>9</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:7">
       <c r="A501" s="1" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>75</v>
@@ -12326,16 +12329,16 @@
         <v>9</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="G501" s="1"/>
     </row>
     <row r="502" spans="1:7">
       <c r="A502" s="1" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>75</v>
@@ -12347,16 +12350,16 @@
         <v>9</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:7">
       <c r="A503" s="1" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>75</v>
@@ -12368,16 +12371,16 @@
         <v>9</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:7">
       <c r="A504" s="1" t="s">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>75</v>
@@ -12389,16 +12392,16 @@
         <v>9</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:7">
       <c r="A505" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>75</v>
@@ -12410,16 +12413,16 @@
         <v>9</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>384</v>
+        <v>169</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:7">
       <c r="A506" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>75</v>
@@ -12431,7 +12434,7 @@
         <v>9</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>169</v>
@@ -12440,7 +12443,7 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>75</v>
@@ -12452,16 +12455,16 @@
         <v>9</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:7">
       <c r="A508" s="1" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>75</v>
@@ -12473,16 +12476,16 @@
         <v>9</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:7">
       <c r="A509" s="1" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>75</v>
@@ -12494,16 +12497,16 @@
         <v>9</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:7">
       <c r="A510" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>75</v>
@@ -12515,16 +12518,16 @@
         <v>9</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:7">
       <c r="A511" s="1" t="s">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>75</v>
@@ -12536,16 +12539,16 @@
         <v>9</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="G511" s="1"/>
     </row>
     <row r="512" spans="1:7">
       <c r="A512" s="1" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>75</v>
@@ -12557,16 +12560,16 @@
         <v>9</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G512" s="1"/>
     </row>
     <row r="513" spans="1:7">
       <c r="A513" s="1" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>75</v>
@@ -12578,16 +12581,16 @@
         <v>9</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G513" s="1"/>
     </row>
     <row r="514" spans="1:7">
       <c r="A514" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>75</v>
@@ -12599,7 +12602,7 @@
         <v>9</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>39</v>
@@ -12608,7 +12611,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>75</v>
@@ -12620,16 +12623,16 @@
         <v>9</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="G515" s="1"/>
     </row>
     <row r="516" spans="1:7">
       <c r="A516" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>75</v>
@@ -12641,16 +12644,16 @@
         <v>9</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G516" s="1"/>
     </row>
     <row r="517" spans="1:7">
       <c r="A517" s="1" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>75</v>
@@ -12662,16 +12665,16 @@
         <v>9</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="G517" s="1"/>
     </row>
     <row r="518" spans="1:7">
       <c r="A518" s="1" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>75</v>
@@ -12683,7 +12686,7 @@
         <v>9</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>76</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>75</v>
@@ -12704,10 +12707,10 @@
         <v>9</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G519" s="1"/>
     </row>
@@ -12725,7 +12728,7 @@
         <v>9</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>76</v>
@@ -12734,7 +12737,7 @@
     </row>
     <row r="521" spans="1:7">
       <c r="A521" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>75</v>
@@ -12746,7 +12749,7 @@
         <v>9</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>76</v>
@@ -12755,7 +12758,7 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>75</v>
@@ -12767,7 +12770,7 @@
         <v>9</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F522" s="1" t="s">
         <v>76</v>
@@ -12776,7 +12779,7 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523" s="1" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>75</v>
@@ -12788,7 +12791,7 @@
         <v>9</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F523" s="1" t="s">
         <v>76</v>
@@ -12797,7 +12800,7 @@
     </row>
     <row r="524" spans="1:7">
       <c r="A524" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>75</v>
@@ -12809,7 +12812,7 @@
         <v>9</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F524" s="1" t="s">
         <v>76</v>
@@ -12818,7 +12821,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="A525" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>75</v>
@@ -12830,7 +12833,7 @@
         <v>9</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>76</v>
@@ -12839,7 +12842,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="A526" s="1" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>75</v>
@@ -12851,16 +12854,16 @@
         <v>9</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G526" s="1"/>
     </row>
     <row r="527" spans="1:7">
       <c r="A527" s="1" t="s">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>75</v>
@@ -12872,16 +12875,16 @@
         <v>9</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F527" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G527" s="1"/>
     </row>
     <row r="528" spans="1:7">
       <c r="A528" s="1" t="s">
-        <v>350</v>
+        <v>128</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>75</v>
@@ -12893,16 +12896,16 @@
         <v>9</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="G528" s="1"/>
     </row>
     <row r="529" spans="1:7">
       <c r="A529" s="1" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>75</v>
@@ -12914,16 +12917,16 @@
         <v>9</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F529" s="1" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="G529" s="1"/>
     </row>
     <row r="530" spans="1:7">
       <c r="A530" s="1" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>75</v>
@@ -12935,16 +12938,16 @@
         <v>9</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="G530" s="1"/>
     </row>
     <row r="531" spans="1:7">
       <c r="A531" s="1" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>75</v>
@@ -12956,16 +12959,16 @@
         <v>9</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="G531" s="1"/>
     </row>
     <row r="532" spans="1:7">
       <c r="A532" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>75</v>
@@ -12977,16 +12980,16 @@
         <v>9</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G532" s="1"/>
     </row>
     <row r="533" spans="1:7">
       <c r="A533" s="1" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>75</v>
@@ -12998,16 +13001,16 @@
         <v>9</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="G533" s="1"/>
     </row>
     <row r="534" spans="1:7">
       <c r="A534" s="1" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>75</v>
@@ -13019,16 +13022,16 @@
         <v>9</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G534" s="1"/>
     </row>
     <row r="535" spans="1:7">
       <c r="A535" s="1" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>75</v>
@@ -13040,16 +13043,16 @@
         <v>9</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F535" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G535" s="1"/>
     </row>
     <row r="536" spans="1:7">
       <c r="A536" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>75</v>
@@ -13061,16 +13064,16 @@
         <v>9</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G536" s="1"/>
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="1" t="s">
-        <v>423</v>
+        <v>124</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>75</v>
@@ -13082,16 +13085,16 @@
         <v>9</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F537" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G537" s="1"/>
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="1" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>75</v>
@@ -13103,16 +13106,16 @@
         <v>9</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F538" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G538" s="1"/>
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="1" t="s">
-        <v>269</v>
+        <v>424</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>75</v>
@@ -13124,16 +13127,16 @@
         <v>9</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F539" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G539" s="1"/>
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>75</v>
@@ -13145,16 +13148,16 @@
         <v>9</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G540" s="1"/>
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="1" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>75</v>
@@ -13166,16 +13169,16 @@
         <v>9</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="G541" s="1"/>
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="1" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>75</v>
@@ -13187,16 +13190,16 @@
         <v>9</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="G542" s="1"/>
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="1" t="s">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>75</v>
@@ -13208,16 +13211,16 @@
         <v>9</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="G543" s="1"/>
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="1" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>75</v>
@@ -13229,16 +13232,16 @@
         <v>9</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="G544" s="1"/>
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>75</v>
@@ -13250,7 +13253,7 @@
         <v>9</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>68</v>
@@ -13259,7 +13262,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="A546" s="1" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>75</v>
@@ -13271,7 +13274,7 @@
         <v>9</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>68</v>
@@ -13280,7 +13283,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="A547" s="1" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>75</v>
@@ -13292,7 +13295,7 @@
         <v>9</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>68</v>
@@ -13301,7 +13304,7 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>75</v>
@@ -13313,7 +13316,7 @@
         <v>9</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>68</v>
@@ -13322,7 +13325,7 @@
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>75</v>
@@ -13334,7 +13337,7 @@
         <v>9</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>68</v>
@@ -13343,7 +13346,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="1" t="s">
-        <v>93</v>
+        <v>334</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>75</v>
@@ -13355,16 +13358,16 @@
         <v>9</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G550" s="1"/>
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="1" t="s">
-        <v>97</v>
+        <v>330</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>75</v>
@@ -13376,16 +13379,16 @@
         <v>9</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G551" s="1"/>
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="1" t="s">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>75</v>
@@ -13397,7 +13400,7 @@
         <v>9</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>76</v>
@@ -13406,7 +13409,7 @@
     </row>
     <row r="553" spans="1:7">
       <c r="A553" s="1" t="s">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>75</v>
@@ -13418,16 +13421,16 @@
         <v>9</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G553" s="1"/>
     </row>
     <row r="554" spans="1:7">
       <c r="A554" s="1" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>75</v>
@@ -13439,16 +13442,16 @@
         <v>9</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G554" s="1"/>
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>75</v>
@@ -13460,16 +13463,16 @@
         <v>9</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="G555" s="1"/>
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="1" t="s">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>75</v>
@@ -13481,16 +13484,16 @@
         <v>9</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="G556" s="1"/>
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="1" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>75</v>
@@ -13502,16 +13505,16 @@
         <v>9</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="G557" s="1"/>
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="1" t="s">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>75</v>
@@ -13523,16 +13526,16 @@
         <v>9</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="G558" s="1"/>
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="1" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>75</v>
@@ -13544,16 +13547,16 @@
         <v>9</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G559" s="1"/>
     </row>
     <row r="560" spans="1:7">
       <c r="A560" s="1" t="s">
-        <v>447</v>
+        <v>289</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>75</v>
@@ -13565,16 +13568,16 @@
         <v>9</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G560" s="1"/>
     </row>
     <row r="561" spans="1:7">
       <c r="A561" s="1" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>75</v>
@@ -13586,16 +13589,16 @@
         <v>9</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="G561" s="1"/>
     </row>
     <row r="562" spans="1:7">
       <c r="A562" s="1" t="s">
-        <v>330</v>
+        <v>448</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>75</v>
@@ -13607,16 +13610,16 @@
         <v>9</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="G562" s="1"/>
     </row>
     <row r="563" spans="1:7">
       <c r="A563" s="1" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>75</v>
@@ -13628,16 +13631,16 @@
         <v>9</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:7">
       <c r="A564" s="1" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>75</v>
@@ -13649,7 +13652,7 @@
         <v>9</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>73</v>
@@ -13658,7 +13661,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="A565" s="1" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>75</v>
@@ -13670,16 +13673,16 @@
         <v>9</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G565" s="1"/>
     </row>
     <row r="566" spans="1:7">
       <c r="A566" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>75</v>
@@ -13691,7 +13694,7 @@
         <v>9</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>73</v>
@@ -13700,7 +13703,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="A567" s="1" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>75</v>
@@ -13712,16 +13715,16 @@
         <v>9</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>290</v>
+        <v>73</v>
       </c>
       <c r="G567" s="1"/>
     </row>
     <row r="568" spans="1:7">
       <c r="A568" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>75</v>
@@ -13733,16 +13736,16 @@
         <v>9</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G568" s="1"/>
     </row>
     <row r="569" spans="1:7">
       <c r="A569" s="1" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>75</v>
@@ -13754,16 +13757,16 @@
         <v>9</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="G569" s="1"/>
     </row>
     <row r="570" spans="1:7">
       <c r="A570" s="1" t="s">
-        <v>62</v>
+        <v>325</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>75</v>
@@ -13775,16 +13778,16 @@
         <v>9</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G570" s="1"/>
     </row>
     <row r="571" spans="1:7">
       <c r="A571" s="1" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>75</v>
@@ -13796,16 +13799,16 @@
         <v>9</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G571" s="1"/>
     </row>
     <row r="572" spans="1:7">
       <c r="A572" s="1" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>75</v>
@@ -13817,16 +13820,16 @@
         <v>9</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G572" s="1"/>
     </row>
     <row r="573" spans="1:7">
       <c r="A573" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>75</v>
@@ -13838,7 +13841,7 @@
         <v>9</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>42</v>
@@ -13847,7 +13850,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="A574" s="1" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>75</v>
@@ -13859,16 +13862,16 @@
         <v>9</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G574" s="1"/>
     </row>
     <row r="575" spans="1:7">
       <c r="A575" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>75</v>
@@ -13880,7 +13883,7 @@
         <v>9</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>42</v>
@@ -13889,7 +13892,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="A576" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>75</v>
@@ -13901,7 +13904,7 @@
         <v>9</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>42</v>
@@ -13910,7 +13913,7 @@
     </row>
     <row r="577" spans="1:7">
       <c r="A577" s="1" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>75</v>
@@ -13922,16 +13925,16 @@
         <v>9</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="G577" s="1"/>
     </row>
     <row r="578" spans="1:7">
       <c r="A578" s="1" t="s">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>75</v>
@@ -13943,16 +13946,16 @@
         <v>9</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="G578" s="1"/>
     </row>
     <row r="579" spans="1:7">
       <c r="A579" s="1" t="s">
-        <v>467</v>
+        <v>107</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>75</v>
@@ -13964,16 +13967,16 @@
         <v>9</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="G579" s="1"/>
     </row>
     <row r="580" spans="1:7">
       <c r="A580" s="1" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>75</v>
@@ -13985,16 +13988,16 @@
         <v>9</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="G580" s="1"/>
     </row>
     <row r="581" spans="1:7">
       <c r="A581" s="1" t="s">
-        <v>343</v>
+        <v>468</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>75</v>
@@ -14006,16 +14009,16 @@
         <v>9</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="G581" s="1"/>
     </row>
     <row r="582" spans="1:7">
       <c r="A582" s="1" t="s">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>75</v>
@@ -14027,16 +14030,16 @@
         <v>9</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G582" s="1"/>
     </row>
     <row r="583" spans="1:7">
       <c r="A583" s="1" t="s">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>75</v>
@@ -14048,16 +14051,16 @@
         <v>9</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="G583" s="1"/>
     </row>
     <row r="584" spans="1:7">
       <c r="A584" s="1" t="s">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>75</v>
@@ -14069,16 +14072,16 @@
         <v>9</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G584" s="1"/>
     </row>
     <row r="585" spans="1:7">
       <c r="A585" s="1" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>75</v>
@@ -14090,16 +14093,16 @@
         <v>9</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="G585" s="1"/>
     </row>
     <row r="586" spans="1:7">
       <c r="A586" s="1" t="s">
-        <v>344</v>
+        <v>95</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>75</v>
@@ -14111,16 +14114,16 @@
         <v>9</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="G586" s="1"/>
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="1" t="s">
-        <v>476</v>
+        <v>94</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>75</v>
@@ -14132,16 +14135,16 @@
         <v>9</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="G587" s="1"/>
     </row>
     <row r="588" spans="1:7">
       <c r="A588" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>75</v>
@@ -14153,16 +14156,16 @@
         <v>9</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F588" s="1" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="G588" s="1"/>
     </row>
     <row r="589" spans="1:7">
       <c r="A589" s="1" t="s">
-        <v>216</v>
+        <v>477</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>75</v>
@@ -14174,16 +14177,16 @@
         <v>9</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="G589" s="1"/>
     </row>
     <row r="590" spans="1:7">
       <c r="A590" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>75</v>
@@ -14195,12 +14198,54 @@
         <v>9</v>
       </c>
       <c r="E590" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G590" s="1"/>
+    </row>
+    <row r="591" spans="1:7">
+      <c r="A591" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E591" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F590" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G590" s="1"/>
+      <c r="F591" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G591" s="1"/>
+    </row>
+    <row r="592" spans="1:7">
+      <c r="A592" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G592" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
